--- a/Article Analyzer/Data/Dataset.xlsx
+++ b/Article Analyzer/Data/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NLP-II\Article Analyzer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0A94EB-99B2-47DE-9438-DD9A718E733A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64207A17-8E47-43D6-9869-C16E091B85E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A86EC039-C1B9-40EF-859D-D64B78300EE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -90,13 +90,34 @@
     <t>IDFC First Bank Ltd reported impressive financial results for the quarter ending in June. The bank's net profit surged by 61.3% YoY to Rs 765 crore, while total income from operations grew by 43.3% to Rs 8,282 crore. Net interest income also saw a significant increase of 36% YoY, reaching Rs 3,745 crore. Operating profit before provisions and contingencies witnessed a remarkable 59% YoY rise, amounting to Rs 1,500 crore. Provisions and contingencies for the quarter were Rs 476 crore, compared to Rs 308 crore in the previous year. The bank showed strong asset quality, with gross non-performing assets (NPA) standing at 2.17% of total loans, down from 3.36% a year ago. The net NPA ratio was 0.70%, a considerable decrease from the 1.30% reported a year ago. IDFC First Bank demonstrated a robust capital position, with a capital adequacy ratio of 16.96% as of June-end, up from 15.42% a year ago. The net interest margin also improved to 6.33% for the quarter.
 The bank's fee and other income grew by 49% YoY to Rs 1,341 crore, with retail fees contributing 91% of the overall fees. Operating expenses increased by 37% YoY, mainly due to employee increments, branch expansion, and business volume growth.
 Customer deposits witnessed a substantial 44% YoY increase, amounting to Rs 1.48 lakh crore. CASA deposits grew by 27% YoY, reaching Rs 71,765 crore. However, the CASA ratio reduced to 46.5% from 50.0% a year ago, primarily due to a shift from savings accounts to term deposits influenced by prevailing interest rates. Overall, IDFC First Bank's strong financial performance and healthy asset quality indicate a positive trajectory for the bank in Q1-FY24. On the National Stock Exchange, shares of IDFC First Bank closed 1.7% higher at Rs 83.95.</t>
+  </si>
+  <si>
+    <t>Bajaj Finance offers robust update for Q1, draws brokerage upgrades</t>
+  </si>
+  <si>
+    <t>Pune-based non-bank lender, Bajaj Finance, surprised analysts with a robust first-quarter business growth update, leading to an 8% surge in its shares, marking the largest single-day gain in nearly a year. As a result, several brokerage houses have reaffirmed their bullish outlook, upgrading their recommendations and raising price targets. CLSA upgraded the stock to buy, raising EPS estimates by 5-6%, and predicting a further 15% rise in stock value. Morgan Stanley also raised its price target, expecting an additional 18% return from current levels. The impressive Q1FY24 pre-quarter numbers included a 9% growth in assets under management (AUM), surpassing the expected 6-7% growth, and a strong 34% YoY volume growth in disbursements. New customer acquisition was also healthy, contributing to the company's success. Bajaj Finance reported a 34% increase in new loans booked during Q1, amounting to 9.94 million compared to the previous year's 7.42 million. The AUM saw a record 32% YoY growth, reaching ₹2.7 lakh crore. The customer franchise expanded to 72.98 million by June 2023, showcasing the highest-ever quarterly increase. BofA Securities also raised its price target and expressed confidence in Bajaj Finance's long-term growth guidance of 25-27%. The firm praised the company's performance, stating it is well on track to surpass its 11-12 million customer acquisition guidance. Overall, Bajaj Finance's outstanding Q1 performance and strong credit track record have fueled positive sentiments among analysts, leading to optimism about the company's future growth potential.</t>
+  </si>
+  <si>
+    <t>Surprising business growth and optimism</t>
+  </si>
+  <si>
+    <t>Bajaj Finance</t>
+  </si>
+  <si>
+    <t>Go First resolution professional approaches NCLT seeking permission for refund of cancelled tickets</t>
+  </si>
+  <si>
+    <t>https://economictimes.indiatimes.com/industry/transportation/airlines-/-aviation/go-first-resolution-professional-approaches-nclt-seeking-permission-for-refund-of-cancelled-tickets/articleshow/102250186.cms?from=mdr</t>
+  </si>
+  <si>
+    <t>Go First, the cash-strapped airline that suspended operations on May 3, has approached the National Company Law Tribunal (NCLT) seeking permission to refund money to passengers whose flights were canceled after that date. The resolution professional of Go First filed an application before the Delhi bench of NCLT, requesting authorization to make these refunds. The NCLT bench, comprising Mahendra Khandelwal and Rahul P Bhatnagar, is scheduled to hear the application. After facing technical difficulties due to the non-availability of engines from Pratt &amp; Whitney, Go First had voluntarily initiated Corporate Insolvency Resolution Process (CIRP) and stopped flying on May 3. The NCLT had already admitted the plea for voluntary insolvency resolution proceedings on May 10. Passengers who had their flights canceled had previously approached the NCLT directly, requesting refunds. In response, the NCLT issued an advisory, directing them to claim refunds through the Resolution Professional as per the provisions of the Insolvency &amp; Bankruptcy Code (IBC). Recently, NCLT rejected the claims of lessors of aircraft and engines who sought to restrain Go First from commercial flying. The NCLT clarified that the aircraft are available for resumption of operations, as they have not been deregistered by aviation regulator DGCA. The lessors were also denied inspection of their leased planes and engines, with the NCLT emphasizing the Resolution Professional's responsibility to maintain them efficiently and safely during the CIRP. If Go First's application to refund passengers is approved by the NCLT, it will provide much-needed relief to passengers who have been waiting for their money since the start of the insolvency process. The decision by NCLT to allow refunds would be a crucial step in addressing the concerns of affected air travelers.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +128,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,10 +158,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -149,8 +179,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF46EE1-200C-4AF8-883F-A77B56E579F3}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,28 +631,122 @@
       <c r="G7" s="4"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="18">
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="E8:E12"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="D3:D7"/>
@@ -621,7 +755,10 @@
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="E3:E7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{38722132-6794-447F-825A-DA3C464B7FF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Article Analyzer/Data/Dataset.xlsx
+++ b/Article Analyzer/Data/Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NLP-II\Article Analyzer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64207A17-8E47-43D6-9869-C16E091B85E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3580E3-A6C3-4039-BDB4-8330884932C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A86EC039-C1B9-40EF-859D-D64B78300EE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -110,7 +110,53 @@
     <t>https://economictimes.indiatimes.com/industry/transportation/airlines-/-aviation/go-first-resolution-professional-approaches-nclt-seeking-permission-for-refund-of-cancelled-tickets/articleshow/102250186.cms?from=mdr</t>
   </si>
   <si>
-    <t>Go First, the cash-strapped airline that suspended operations on May 3, has approached the National Company Law Tribunal (NCLT) seeking permission to refund money to passengers whose flights were canceled after that date. The resolution professional of Go First filed an application before the Delhi bench of NCLT, requesting authorization to make these refunds. The NCLT bench, comprising Mahendra Khandelwal and Rahul P Bhatnagar, is scheduled to hear the application. After facing technical difficulties due to the non-availability of engines from Pratt &amp; Whitney, Go First had voluntarily initiated Corporate Insolvency Resolution Process (CIRP) and stopped flying on May 3. The NCLT had already admitted the plea for voluntary insolvency resolution proceedings on May 10. Passengers who had their flights canceled had previously approached the NCLT directly, requesting refunds. In response, the NCLT issued an advisory, directing them to claim refunds through the Resolution Professional as per the provisions of the Insolvency &amp; Bankruptcy Code (IBC). Recently, NCLT rejected the claims of lessors of aircraft and engines who sought to restrain Go First from commercial flying. The NCLT clarified that the aircraft are available for resumption of operations, as they have not been deregistered by aviation regulator DGCA. The lessors were also denied inspection of their leased planes and engines, with the NCLT emphasizing the Resolution Professional's responsibility to maintain them efficiently and safely during the CIRP. If Go First's application to refund passengers is approved by the NCLT, it will provide much-needed relief to passengers who have been waiting for their money since the start of the insolvency process. The decision by NCLT to allow refunds would be a crucial step in addressing the concerns of affected air travelers.</t>
+    <t>https://www.moneycontrol.com/news/business/markets/stock-market-today-top-10-things-to-know-before-the-market-opens-102-11090641.html</t>
+  </si>
+  <si>
+    <t>On August 4, Sensex and Nifty are expected to open higher with a mildly positive start as per trends in the GIFT Nifty, showing a gain of 33 points. In the previous session, Sensex closed 542 points lower at 65,240, while Nifty50 closed 144 points lower at 19,381, above its 200-day moving average of 19,542.
+The Nifty's pivot points suggest support levels at 19,313, 19,256, and 19,164, and resistance levels at 19,497, 19,554, and 19,647.
+Global markets saw Nasdaq 100 and S&amp;P 500 futures rising about 0.2 percent, while Dow Jones Industrial Average futures increased by 0.07 percent. European stock markets declined, with tech stocks facing a 1.8 percent downturn. In Asia, Japan's Nikkei 225 and Topix were down, while South Korea's Kospi rose, and Hong Kong's Hang Seng index is set to rebound.
+LIC Housing Finance reported a 43 percent increase in standalone net profit at Rs 1,324 crore for Q1, driven by strong demand in housing loans. S&amp;P Global expects India's economy to grow 6.7 percent annually from 2023-24 to 2030-31, reaching a GDP of $6.7 trillion.
+Oil prices rose about 2 percent due to supply tightening efforts by Saudi Arabia and Russia. The Dollar index traded slightly lower at 102.55, and gold prices remained flat near a three-week low.
+Foreign institutional investors sold shares worth Rs 317.46 crore, while domestic institutional investors bought Rs 1,729.19 crore worth of stocks on August 3, according to provisional data from the NSE.</t>
+  </si>
+  <si>
+    <t>Stock Market Today: Top 10 things to know before the market opens</t>
+  </si>
+  <si>
+    <t>LIC Housing Finance Limited, S&amp;P Global</t>
+  </si>
+  <si>
+    <t>Financial markets and economic outlook</t>
+  </si>
+  <si>
+    <t>Go First, the cash-strapped airline that suspended operations on May 3, has approached the National Company Law Tribunal (NCLT) seeking permission to refund money to passengers whose flights were canceled after that date. The Resolution Professional of Go First filed an application before the Delhi bench of NCLT, requesting authorization to make these refunds. The NCLT bench, comprising Mahendra Khandelwal and Rahul P Bhatnagar, is scheduled to hear the application.After facing technical difficulties due to the non-availability of engines from Pratt &amp; Whitney, Go First had voluntarily initiated the Corporate Insolvency Resolution Process (CIRP) and stopped flying on May 3. The NCLT had already admitted the plea for voluntary insolvency resolution proceedings on May 10.Earlier, several air passengers had directly approached the NCLT, seeking refunds for their canceled tickets. In response, the NCLT issued an advisory, directing them to claim refunds through the Resolution Professional as per the provisions of the Insolvency &amp; Bankruptcy Code (IBC).Recently, the NCLT rejected the claims of lessors of aircraft and engines who sought to restrain Go First from commercial flying. The NCLT clarified that the aircraft are available for resumption of operations since they have not been deregistered by the aviation regulator DGCA. The lessors were also denied inspection of their leased planes and engines, with the NCLT emphasizing the Resolution Professional's responsibility to maintain them efficiently and safely during the CIRP. If Go First's application to refund passengers is approved by the NCLT, it will provide much-needed relief to passengers who have been waiting for their money since the start of the insolvency process. The decision by the NCLT to allow refunds would be a crucial step in addressing the concerns of affected air travelers.</t>
+  </si>
+  <si>
+    <t>Adverse</t>
+  </si>
+  <si>
+    <t>Go First, National Company Law Tribunal (NCLT)</t>
+  </si>
+  <si>
+    <t>Airline insolvency and passenger refunds</t>
+  </si>
+  <si>
+    <t>https://indianexpress.com/article/business/economy/india-restricts-import-laptop-tablets-and-computers-8874367/</t>
+  </si>
+  <si>
+    <t>Laptop imports will require licence; Govt keen to boost local industry</t>
+  </si>
+  <si>
+    <t>The Indian government has imposed immediate restrictions on the import of personal computers, laptops, and related items to boost domestic manufacturing and reduce dependence on Chinese imports. Over 75% of India's laptop and PC imports in 2022-23 came from China, prompting this move. The Directorate General of Foreign Trade (DGFT) issued a notification restricting imports under seven categories of the HSN Code 8471, while baggage imports remain unrestricted. This measure is aimed at supporting the production-linked incentive (PLI) scheme for IT hardware, encouraging local manufacturing in the electronics sector. Companies like Apple, Samsung, and Acer may need to increase manufacturing in India. The move could also impact consumer prices depending on licensing norms. Import of laptops, tablets, and related items will now require a valid license for restricted imports. Certain exemptions for research and essential imports for capital goods have been provided. 
+By curbing Chinese imports and promoting domestic manufacturing, India seeks to strengthen its electronics sector and enhance self-sufficiency. The move aligns with the goal of bolstering the country's economic and technological capabilities. Overall, the restriction aims to reduce reliance on Chinese imports, boost local production, and ensure secure digital access for Indian citizens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Import restrictions for promoting domestic manufacturing</t>
+  </si>
+  <si>
+    <t>The Indian government, China</t>
   </si>
 </sst>
 </file>
@@ -176,8 +222,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -185,8 +231,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -503,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF46EE1-200C-4AF8-883F-A77B56E579F3}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +617,7 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -593,7 +639,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -603,7 +649,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -613,7 +659,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -623,7 +669,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -647,7 +693,7 @@
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -660,7 +706,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -669,7 +715,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -678,7 +724,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -687,7 +733,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -697,11 +743,20 @@
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -709,44 +764,174 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="E8:E12"/>
+  <mergeCells count="35">
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="D3:D7"/>
@@ -754,11 +939,25 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="E3:E7"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="F8:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{38722132-6794-447F-825A-DA3C464B7FF7}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{2E63951D-B22D-4AB1-8423-411DAF8C49BD}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{64F878C6-1D14-454D-B5AD-38F3712A5B94}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{D2D088CC-5E2A-4316-B5E7-6E5F513599E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>